--- a/excel_attachments/Master_Portfolio_Tracker.xlsx
+++ b/excel_attachments/Master_Portfolio_Tracker.xlsx
@@ -455,7 +455,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L46"/>
+  <dimension ref="A1:L76"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="L31" sqref="A17:L31"/>
@@ -2669,6 +2669,1446 @@
         </is>
       </c>
     </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>HBL Engineering Ltd</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t xml:space="preserve">INE292B01021   </t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>EQUITY STOCK</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>Auto Ancillaries - Batteries</t>
+        </is>
+      </c>
+      <c r="E47" t="n">
+        <v>1203</v>
+      </c>
+      <c r="F47" t="n">
+        <v>207.56</v>
+      </c>
+      <c r="G47" t="n">
+        <v>249694.68</v>
+      </c>
+      <c r="H47" t="n">
+        <v>566.3</v>
+      </c>
+      <c r="I47" t="n">
+        <v>681258.8999999999</v>
+      </c>
+      <c r="J47" t="n">
+        <v>431564.22</v>
+      </c>
+      <c r="K47" t="n">
+        <v>-14556.3</v>
+      </c>
+      <c r="L47" t="inlineStr">
+        <is>
+          <t>23-06-2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>Epigral Ltd</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t xml:space="preserve">INE071N01016   </t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>EQUITY STOCK</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>Chemicals - Speciality - Large</t>
+        </is>
+      </c>
+      <c r="E48" t="n">
+        <v>73</v>
+      </c>
+      <c r="F48" t="n">
+        <v>1002.08</v>
+      </c>
+      <c r="G48" t="n">
+        <v>73151.84</v>
+      </c>
+      <c r="H48" t="n">
+        <v>1738.1</v>
+      </c>
+      <c r="I48" t="n">
+        <v>126881.3</v>
+      </c>
+      <c r="J48" t="n">
+        <v>53729.46</v>
+      </c>
+      <c r="K48" t="n">
+        <v>489.1</v>
+      </c>
+      <c r="L48" t="inlineStr">
+        <is>
+          <t>23-06-2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>Moschip Technologies Ltd</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t xml:space="preserve">INE935B01025   </t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>EQUITY STOCK</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>Computers - Software - Medium / Small</t>
+        </is>
+      </c>
+      <c r="E49" t="n">
+        <v>512</v>
+      </c>
+      <c r="F49" t="n">
+        <v>107.98</v>
+      </c>
+      <c r="G49" t="n">
+        <v>55285.76</v>
+      </c>
+      <c r="H49" t="n">
+        <v>176.01</v>
+      </c>
+      <c r="I49" t="n">
+        <v>90117.12</v>
+      </c>
+      <c r="J49" t="n">
+        <v>34831.36</v>
+      </c>
+      <c r="K49" t="n">
+        <v>445.44</v>
+      </c>
+      <c r="L49" t="inlineStr">
+        <is>
+          <t>23-06-2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>Rail Vikas Nigam Ltd</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t xml:space="preserve">INE415G01027   </t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>EQUITY STOCK</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>Construction - Civil / Turnkey - Large</t>
+        </is>
+      </c>
+      <c r="E50" t="n">
+        <v>237</v>
+      </c>
+      <c r="F50" t="n">
+        <v>289.9</v>
+      </c>
+      <c r="G50" t="n">
+        <v>68706.3</v>
+      </c>
+      <c r="H50" t="n">
+        <v>391.4</v>
+      </c>
+      <c r="I50" t="n">
+        <v>92761.79999999999</v>
+      </c>
+      <c r="J50" t="n">
+        <v>24055.5</v>
+      </c>
+      <c r="K50" t="n">
+        <v>189.6</v>
+      </c>
+      <c r="L50" t="inlineStr">
+        <is>
+          <t>23-06-2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>Godrej Properties Ltd</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t xml:space="preserve">INE484J01027   </t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>EQUITY STOCK</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>Construction - Factories / Offices / Commercial</t>
+        </is>
+      </c>
+      <c r="E51" t="n">
+        <v>181</v>
+      </c>
+      <c r="F51" t="n">
+        <v>2247.77</v>
+      </c>
+      <c r="G51" t="n">
+        <v>406846.54</v>
+      </c>
+      <c r="H51" t="n">
+        <v>2401.1</v>
+      </c>
+      <c r="I51" t="n">
+        <v>434599.1</v>
+      </c>
+      <c r="J51" t="n">
+        <v>27752.56</v>
+      </c>
+      <c r="K51" t="n">
+        <v>-5592.9</v>
+      </c>
+      <c r="L51" t="inlineStr">
+        <is>
+          <t>23-06-2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>Shriram Properties Ltd</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t xml:space="preserve">INE217L01019   </t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>EQUITY STOCK</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>Construction - Factories / Offices / Commercial</t>
+        </is>
+      </c>
+      <c r="E52" t="n">
+        <v>2491</v>
+      </c>
+      <c r="F52" t="n">
+        <v>120.88</v>
+      </c>
+      <c r="G52" t="n">
+        <v>301100.34</v>
+      </c>
+      <c r="H52" t="n">
+        <v>99.23</v>
+      </c>
+      <c r="I52" t="n">
+        <v>247181.93</v>
+      </c>
+      <c r="J52" t="n">
+        <v>-53918.41</v>
+      </c>
+      <c r="K52" t="n">
+        <v>3163.57</v>
+      </c>
+      <c r="L52" t="inlineStr">
+        <is>
+          <t>23-06-2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>Senco Gold Ltd</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t xml:space="preserve">INE602W01027   </t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>EQUITY STOCK</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>Diamond Cutting / Jewellery - Large</t>
+        </is>
+      </c>
+      <c r="E53" t="n">
+        <v>182</v>
+      </c>
+      <c r="F53" t="n">
+        <v>552.53</v>
+      </c>
+      <c r="G53" t="n">
+        <v>100561.37</v>
+      </c>
+      <c r="H53" t="n">
+        <v>334.7</v>
+      </c>
+      <c r="I53" t="n">
+        <v>60915.4</v>
+      </c>
+      <c r="J53" t="n">
+        <v>-39645.97</v>
+      </c>
+      <c r="K53" t="n">
+        <v>-664.3</v>
+      </c>
+      <c r="L53" t="inlineStr">
+        <is>
+          <t>23-06-2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>CG Power &amp; Industrial Solutions Ltd</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t xml:space="preserve">INE067A01029   </t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>EQUITY STOCK</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>Electric Equipment - General - Large</t>
+        </is>
+      </c>
+      <c r="E54" t="n">
+        <v>100</v>
+      </c>
+      <c r="F54" t="n">
+        <v>72.59999999999999</v>
+      </c>
+      <c r="G54" t="n">
+        <v>7260</v>
+      </c>
+      <c r="H54" t="n">
+        <v>683.3</v>
+      </c>
+      <c r="I54" t="n">
+        <v>68330</v>
+      </c>
+      <c r="J54" t="n">
+        <v>61070</v>
+      </c>
+      <c r="K54" t="n">
+        <v>-495</v>
+      </c>
+      <c r="L54" t="inlineStr">
+        <is>
+          <t>23-06-2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>Transformers &amp; Rectifiers India Ltd</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t xml:space="preserve">INE763I01026   </t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>EQUITY STOCK</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>Electric Equipment - Transformers</t>
+        </is>
+      </c>
+      <c r="E55" t="n">
+        <v>270</v>
+      </c>
+      <c r="F55" t="n">
+        <v>382.42</v>
+      </c>
+      <c r="G55" t="n">
+        <v>103254</v>
+      </c>
+      <c r="H55" t="n">
+        <v>492.3</v>
+      </c>
+      <c r="I55" t="n">
+        <v>132921</v>
+      </c>
+      <c r="J55" t="n">
+        <v>29667</v>
+      </c>
+      <c r="K55" t="n">
+        <v>-148.5</v>
+      </c>
+      <c r="L55" t="inlineStr">
+        <is>
+          <t>23-06-2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>Waaree Renewable Technologies Ltd</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t xml:space="preserve">INE299N01021   </t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>EQUITY STOCK</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>Engineering - Turnkey Services</t>
+        </is>
+      </c>
+      <c r="E56" t="n">
+        <v>1455</v>
+      </c>
+      <c r="F56" t="n">
+        <v>251.93</v>
+      </c>
+      <c r="G56" t="n">
+        <v>366558.15</v>
+      </c>
+      <c r="H56" t="n">
+        <v>988</v>
+      </c>
+      <c r="I56" t="n">
+        <v>1437540</v>
+      </c>
+      <c r="J56" t="n">
+        <v>1070981.85</v>
+      </c>
+      <c r="K56" t="n">
+        <v>3055.5</v>
+      </c>
+      <c r="L56" t="inlineStr">
+        <is>
+          <t>23-06-2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>Indian Renewable Energy Development Agency Ltd</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t xml:space="preserve">INE202E01016   </t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>EQUITY STOCK</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>Finance - Term-Lending Institutions</t>
+        </is>
+      </c>
+      <c r="E57" t="n">
+        <v>403</v>
+      </c>
+      <c r="F57" t="n">
+        <v>249.81</v>
+      </c>
+      <c r="G57" t="n">
+        <v>100673.43</v>
+      </c>
+      <c r="H57" t="n">
+        <v>165.47</v>
+      </c>
+      <c r="I57" t="n">
+        <v>66684.41</v>
+      </c>
+      <c r="J57" t="n">
+        <v>-33989.02</v>
+      </c>
+      <c r="K57" t="n">
+        <v>161.2</v>
+      </c>
+      <c r="L57" t="inlineStr">
+        <is>
+          <t>23-06-2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>Edelweiss Financial Services Ltd</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t xml:space="preserve">INE532F01054   </t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>EQUITY STOCK</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>NBFC-Holding Companies</t>
+        </is>
+      </c>
+      <c r="E58" t="n">
+        <v>291</v>
+      </c>
+      <c r="F58" t="n">
+        <v>122.38</v>
+      </c>
+      <c r="G58" t="n">
+        <v>35612.58</v>
+      </c>
+      <c r="H58" t="n">
+        <v>102.53</v>
+      </c>
+      <c r="I58" t="n">
+        <v>29836.23</v>
+      </c>
+      <c r="J58" t="n">
+        <v>-5776.35</v>
+      </c>
+      <c r="K58" t="n">
+        <v>52.38</v>
+      </c>
+      <c r="L58" t="inlineStr">
+        <is>
+          <t>23-06-2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>KPI Green Energy Ltd</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">INE542W01025   </t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>EQUITY STOCK</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>Power Generation And Supply</t>
+        </is>
+      </c>
+      <c r="E59" t="n">
+        <v>156</v>
+      </c>
+      <c r="F59" t="n">
+        <v>565.8099999999999</v>
+      </c>
+      <c r="G59" t="n">
+        <v>88266.88</v>
+      </c>
+      <c r="H59" t="n">
+        <v>478.4</v>
+      </c>
+      <c r="I59" t="n">
+        <v>74630.39999999999</v>
+      </c>
+      <c r="J59" t="n">
+        <v>-13636.48</v>
+      </c>
+      <c r="K59" t="n">
+        <v>-46.8</v>
+      </c>
+      <c r="L59" t="inlineStr">
+        <is>
+          <t>23-06-2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>Reliance Industries Ltd</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t xml:space="preserve">INE002A01018   </t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>EQUITY STOCK</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>Refineries</t>
+        </is>
+      </c>
+      <c r="E60" t="n">
+        <v>288</v>
+      </c>
+      <c r="F60" t="n">
+        <v>152.51</v>
+      </c>
+      <c r="G60" t="n">
+        <v>43922.88</v>
+      </c>
+      <c r="H60" t="n">
+        <v>1456.8</v>
+      </c>
+      <c r="I60" t="n">
+        <v>419558.4</v>
+      </c>
+      <c r="J60" t="n">
+        <v>375635.52</v>
+      </c>
+      <c r="K60" t="n">
+        <v>-2707.2</v>
+      </c>
+      <c r="L60" t="inlineStr">
+        <is>
+          <t>23-06-2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>Salasar Techno Engineering Ltd</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t xml:space="preserve">INE170V01027   </t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>EQUITY STOCK</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>Steel - Medium / Small</t>
+        </is>
+      </c>
+      <c r="E61" t="n">
+        <v>3722</v>
+      </c>
+      <c r="F61" t="n">
+        <v>20.21</v>
+      </c>
+      <c r="G61" t="n">
+        <v>75221.62</v>
+      </c>
+      <c r="H61" t="n">
+        <v>7.94</v>
+      </c>
+      <c r="I61" t="n">
+        <v>29552.68</v>
+      </c>
+      <c r="J61" t="n">
+        <v>-45668.94</v>
+      </c>
+      <c r="K61" t="n">
+        <v>707.1800000000001</v>
+      </c>
+      <c r="L61" t="inlineStr">
+        <is>
+          <t>23-06-2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>HBL Engineering Ltd</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t xml:space="preserve">INE292B01021   </t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>EQUITY STOCK</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>Auto Ancillaries - Batteries</t>
+        </is>
+      </c>
+      <c r="E62" t="n">
+        <v>1203</v>
+      </c>
+      <c r="F62" t="n">
+        <v>207.56</v>
+      </c>
+      <c r="G62" t="n">
+        <v>249694.68</v>
+      </c>
+      <c r="H62" t="n">
+        <v>591.15</v>
+      </c>
+      <c r="I62" t="n">
+        <v>711153.45</v>
+      </c>
+      <c r="J62" t="n">
+        <v>461458.77</v>
+      </c>
+      <c r="K62" t="n">
+        <v>29894.55</v>
+      </c>
+      <c r="L62" t="inlineStr">
+        <is>
+          <t>24-06-2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>Epigral Ltd</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t xml:space="preserve">INE071N01016   </t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>EQUITY STOCK</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>Chemicals - Speciality - Large</t>
+        </is>
+      </c>
+      <c r="E63" t="n">
+        <v>73</v>
+      </c>
+      <c r="F63" t="n">
+        <v>1002.08</v>
+      </c>
+      <c r="G63" t="n">
+        <v>73151.84</v>
+      </c>
+      <c r="H63" t="n">
+        <v>1753.8</v>
+      </c>
+      <c r="I63" t="n">
+        <v>128027.4</v>
+      </c>
+      <c r="J63" t="n">
+        <v>54875.56</v>
+      </c>
+      <c r="K63" t="n">
+        <v>1146.1</v>
+      </c>
+      <c r="L63" t="inlineStr">
+        <is>
+          <t>24-06-2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>Moschip Technologies Ltd</t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">INE935B01025   </t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>EQUITY STOCK</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>Computers - Software - Medium / Small</t>
+        </is>
+      </c>
+      <c r="E64" t="n">
+        <v>512</v>
+      </c>
+      <c r="F64" t="n">
+        <v>107.98</v>
+      </c>
+      <c r="G64" t="n">
+        <v>55285.76</v>
+      </c>
+      <c r="H64" t="n">
+        <v>179.74</v>
+      </c>
+      <c r="I64" t="n">
+        <v>92026.88</v>
+      </c>
+      <c r="J64" t="n">
+        <v>36741.12</v>
+      </c>
+      <c r="K64" t="n">
+        <v>1909.76</v>
+      </c>
+      <c r="L64" t="inlineStr">
+        <is>
+          <t>24-06-2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>Rail Vikas Nigam Ltd</t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t xml:space="preserve">INE415G01027   </t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>EQUITY STOCK</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>Construction - Civil / Turnkey - Large</t>
+        </is>
+      </c>
+      <c r="E65" t="n">
+        <v>237</v>
+      </c>
+      <c r="F65" t="n">
+        <v>289.9</v>
+      </c>
+      <c r="G65" t="n">
+        <v>68706.3</v>
+      </c>
+      <c r="H65" t="n">
+        <v>398</v>
+      </c>
+      <c r="I65" t="n">
+        <v>94326</v>
+      </c>
+      <c r="J65" t="n">
+        <v>25619.7</v>
+      </c>
+      <c r="K65" t="n">
+        <v>1564.2</v>
+      </c>
+      <c r="L65" t="inlineStr">
+        <is>
+          <t>24-06-2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>Godrej Properties Ltd</t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t xml:space="preserve">INE484J01027   </t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>EQUITY STOCK</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>Construction - Factories / Offices / Commercial</t>
+        </is>
+      </c>
+      <c r="E66" t="n">
+        <v>181</v>
+      </c>
+      <c r="F66" t="n">
+        <v>2247.77</v>
+      </c>
+      <c r="G66" t="n">
+        <v>406846.54</v>
+      </c>
+      <c r="H66" t="n">
+        <v>2398.7</v>
+      </c>
+      <c r="I66" t="n">
+        <v>434164.7</v>
+      </c>
+      <c r="J66" t="n">
+        <v>27318.16</v>
+      </c>
+      <c r="K66" t="n">
+        <v>-434.4</v>
+      </c>
+      <c r="L66" t="inlineStr">
+        <is>
+          <t>24-06-2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>Shriram Properties Ltd</t>
+        </is>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t xml:space="preserve">INE217L01019   </t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>EQUITY STOCK</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>Construction - Factories / Offices / Commercial</t>
+        </is>
+      </c>
+      <c r="E67" t="n">
+        <v>2491</v>
+      </c>
+      <c r="F67" t="n">
+        <v>120.88</v>
+      </c>
+      <c r="G67" t="n">
+        <v>301100.34</v>
+      </c>
+      <c r="H67" t="n">
+        <v>100.6</v>
+      </c>
+      <c r="I67" t="n">
+        <v>250594.6</v>
+      </c>
+      <c r="J67" t="n">
+        <v>-50505.74</v>
+      </c>
+      <c r="K67" t="n">
+        <v>3412.67</v>
+      </c>
+      <c r="L67" t="inlineStr">
+        <is>
+          <t>24-06-2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>Senco Gold Ltd</t>
+        </is>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t xml:space="preserve">INE602W01027   </t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>EQUITY STOCK</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>Diamond Cutting / Jewellery - Large</t>
+        </is>
+      </c>
+      <c r="E68" t="n">
+        <v>182</v>
+      </c>
+      <c r="F68" t="n">
+        <v>552.53</v>
+      </c>
+      <c r="G68" t="n">
+        <v>100561.37</v>
+      </c>
+      <c r="H68" t="n">
+        <v>338.4</v>
+      </c>
+      <c r="I68" t="n">
+        <v>61588.8</v>
+      </c>
+      <c r="J68" t="n">
+        <v>-38972.57</v>
+      </c>
+      <c r="K68" t="n">
+        <v>673.4</v>
+      </c>
+      <c r="L68" t="inlineStr">
+        <is>
+          <t>24-06-2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>CG Power &amp; Industrial Solutions Ltd</t>
+        </is>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t xml:space="preserve">INE067A01029   </t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>EQUITY STOCK</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>Electric Equipment - General - Large</t>
+        </is>
+      </c>
+      <c r="E69" t="n">
+        <v>100</v>
+      </c>
+      <c r="F69" t="n">
+        <v>72.59999999999999</v>
+      </c>
+      <c r="G69" t="n">
+        <v>7260</v>
+      </c>
+      <c r="H69" t="n">
+        <v>682.45</v>
+      </c>
+      <c r="I69" t="n">
+        <v>68245</v>
+      </c>
+      <c r="J69" t="n">
+        <v>60985</v>
+      </c>
+      <c r="K69" t="n">
+        <v>-85</v>
+      </c>
+      <c r="L69" t="inlineStr">
+        <is>
+          <t>24-06-2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>Transformers &amp; Rectifiers India Ltd</t>
+        </is>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t xml:space="preserve">INE763I01026   </t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>EQUITY STOCK</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>Electric Equipment - Transformers</t>
+        </is>
+      </c>
+      <c r="E70" t="n">
+        <v>270</v>
+      </c>
+      <c r="F70" t="n">
+        <v>382.42</v>
+      </c>
+      <c r="G70" t="n">
+        <v>103254</v>
+      </c>
+      <c r="H70" t="n">
+        <v>487.75</v>
+      </c>
+      <c r="I70" t="n">
+        <v>131692.5</v>
+      </c>
+      <c r="J70" t="n">
+        <v>28438.5</v>
+      </c>
+      <c r="K70" t="n">
+        <v>-1228.5</v>
+      </c>
+      <c r="L70" t="inlineStr">
+        <is>
+          <t>24-06-2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>Waaree Renewable Technologies Ltd</t>
+        </is>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t xml:space="preserve">INE299N01021   </t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>EQUITY STOCK</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>Engineering - Turnkey Services</t>
+        </is>
+      </c>
+      <c r="E71" t="n">
+        <v>1455</v>
+      </c>
+      <c r="F71" t="n">
+        <v>251.93</v>
+      </c>
+      <c r="G71" t="n">
+        <v>366558.15</v>
+      </c>
+      <c r="H71" t="n">
+        <v>990</v>
+      </c>
+      <c r="I71" t="n">
+        <v>1440450</v>
+      </c>
+      <c r="J71" t="n">
+        <v>1073891.85</v>
+      </c>
+      <c r="K71" t="n">
+        <v>2910</v>
+      </c>
+      <c r="L71" t="inlineStr">
+        <is>
+          <t>24-06-2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>Indian Renewable Energy Development Agency Ltd</t>
+        </is>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t xml:space="preserve">INE202E01016   </t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>EQUITY STOCK</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>Finance - Term-Lending Institutions</t>
+        </is>
+      </c>
+      <c r="E72" t="n">
+        <v>403</v>
+      </c>
+      <c r="F72" t="n">
+        <v>249.81</v>
+      </c>
+      <c r="G72" t="n">
+        <v>100673.43</v>
+      </c>
+      <c r="H72" t="n">
+        <v>166.17</v>
+      </c>
+      <c r="I72" t="n">
+        <v>66966.50999999999</v>
+      </c>
+      <c r="J72" t="n">
+        <v>-33706.92</v>
+      </c>
+      <c r="K72" t="n">
+        <v>282.1</v>
+      </c>
+      <c r="L72" t="inlineStr">
+        <is>
+          <t>24-06-2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>Edelweiss Financial Services Ltd</t>
+        </is>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t xml:space="preserve">INE532F01054   </t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>EQUITY STOCK</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>NBFC-Holding Companies</t>
+        </is>
+      </c>
+      <c r="E73" t="n">
+        <v>291</v>
+      </c>
+      <c r="F73" t="n">
+        <v>122.38</v>
+      </c>
+      <c r="G73" t="n">
+        <v>35612.58</v>
+      </c>
+      <c r="H73" t="n">
+        <v>108.94</v>
+      </c>
+      <c r="I73" t="n">
+        <v>31701.54</v>
+      </c>
+      <c r="J73" t="n">
+        <v>-3911.04</v>
+      </c>
+      <c r="K73" t="n">
+        <v>1865.31</v>
+      </c>
+      <c r="L73" t="inlineStr">
+        <is>
+          <t>24-06-2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>KPI Green Energy Ltd</t>
+        </is>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t xml:space="preserve">INE542W01025   </t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>EQUITY STOCK</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>Power Generation And Supply</t>
+        </is>
+      </c>
+      <c r="E74" t="n">
+        <v>156</v>
+      </c>
+      <c r="F74" t="n">
+        <v>565.8099999999999</v>
+      </c>
+      <c r="G74" t="n">
+        <v>88266.88</v>
+      </c>
+      <c r="H74" t="n">
+        <v>493.3</v>
+      </c>
+      <c r="I74" t="n">
+        <v>76954.8</v>
+      </c>
+      <c r="J74" t="n">
+        <v>-11312.08</v>
+      </c>
+      <c r="K74" t="n">
+        <v>2324.4</v>
+      </c>
+      <c r="L74" t="inlineStr">
+        <is>
+          <t>24-06-2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>Reliance Industries Ltd</t>
+        </is>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t xml:space="preserve">INE002A01018   </t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>EQUITY STOCK</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>Refineries</t>
+        </is>
+      </c>
+      <c r="E75" t="n">
+        <v>288</v>
+      </c>
+      <c r="F75" t="n">
+        <v>152.51</v>
+      </c>
+      <c r="G75" t="n">
+        <v>43922.88</v>
+      </c>
+      <c r="H75" t="n">
+        <v>1450.8</v>
+      </c>
+      <c r="I75" t="n">
+        <v>417830.4</v>
+      </c>
+      <c r="J75" t="n">
+        <v>373907.52</v>
+      </c>
+      <c r="K75" t="n">
+        <v>-1728</v>
+      </c>
+      <c r="L75" t="inlineStr">
+        <is>
+          <t>24-06-2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>Salasar Techno Engineering Ltd</t>
+        </is>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t xml:space="preserve">INE170V01027   </t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>EQUITY STOCK</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>Steel - Medium / Small</t>
+        </is>
+      </c>
+      <c r="E76" t="n">
+        <v>3722</v>
+      </c>
+      <c r="F76" t="n">
+        <v>20.21</v>
+      </c>
+      <c r="G76" t="n">
+        <v>75221.62</v>
+      </c>
+      <c r="H76" t="n">
+        <v>7.92</v>
+      </c>
+      <c r="I76" t="n">
+        <v>29478.24</v>
+      </c>
+      <c r="J76" t="n">
+        <v>-45743.38</v>
+      </c>
+      <c r="K76" t="n">
+        <v>-74.44</v>
+      </c>
+      <c r="L76" t="inlineStr">
+        <is>
+          <t>24-06-2025</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
